--- a/data/unicorn_startups_may_2024.xlsx
+++ b/data/unicorn_startups_may_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/athenawu/Desktop/AnalysisProjects/Group_Project_1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F139AD92-E9CE-D849-86E8-E5E718BAFA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B46592-6A5D-014B-9C2F-4FDD20E7059A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="-18700" windowWidth="27700" windowHeight="15900" xr2:uid="{7D8297F8-819C-47A1-B8C7-1D9F90E84141}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="27700" windowHeight="15900" xr2:uid="{7D8297F8-819C-47A1-B8C7-1D9F90E84141}"/>
   </bookViews>
   <sheets>
     <sheet name="Unicorns" sheetId="1" r:id="rId1"/>
@@ -8899,7 +8899,7 @@
   <dimension ref="A1:BI1253"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
